--- a/MVP/SHOPPING_LISTS/RS COMPONENTS.xlsx
+++ b/MVP/SHOPPING_LISTS/RS COMPONENTS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -46,6 +46,12 @@
     <t>QTY.</t>
   </si>
   <si>
+    <t>13-018212</t>
+  </si>
+  <si>
+    <t>13-018213</t>
+  </si>
+  <si>
     <t>13-018290</t>
   </si>
   <si>
@@ -67,6 +73,15 @@
     <t>13-018447</t>
   </si>
   <si>
+    <t>13-018730</t>
+  </si>
+  <si>
+    <t>MVP-PRT: SMALL RAIL</t>
+  </si>
+  <si>
+    <t>MVP-PRT: SMALL SLIDER</t>
+  </si>
+  <si>
     <t>MVP-PRT: ACTUONIX MOTOR</t>
   </si>
   <si>
@@ -88,9 +103,18 @@
     <t>MVP-PRT: M8 RUBBER FEET</t>
   </si>
   <si>
+    <t>MVP-PRT: SS SPRING</t>
+  </si>
+  <si>
     <t>RS COMPONENTS</t>
   </si>
   <si>
+    <t>P1U150150LKN-PCT</t>
+  </si>
+  <si>
+    <t>PAU15ALS</t>
+  </si>
+  <si>
     <t>PQ12-100-6-R</t>
   </si>
   <si>
@@ -110,6 +134,9 @@
   </si>
   <si>
     <t>126-4964</t>
+  </si>
+  <si>
+    <t>821-526</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -484,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -494,7 +521,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="26" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="38.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
@@ -535,41 +562,38 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="1">
@@ -578,39 +602,42 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -618,42 +645,39 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -661,22 +685,85 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="I8" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="1">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="1">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="1">
+        <v>129</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/MVP/SHOPPING_LISTS/RS COMPONENTS.xlsx
+++ b/MVP/SHOPPING_LISTS/RS COMPONENTS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -46,12 +46,24 @@
     <t>QTY.</t>
   </si>
   <si>
+    <t>13-018210</t>
+  </si>
+  <si>
     <t>13-018212</t>
   </si>
   <si>
     <t>13-018213</t>
   </si>
   <si>
+    <t>13-018276</t>
+  </si>
+  <si>
+    <t>13-018277</t>
+  </si>
+  <si>
+    <t>13-018397</t>
+  </si>
+  <si>
     <t>13-018290</t>
   </si>
   <si>
@@ -76,12 +88,24 @@
     <t>13-018730</t>
   </si>
   <si>
+    <t>MVP-PRT: BIG SLIDER</t>
+  </si>
+  <si>
     <t>MVP-PRT: SMALL RAIL</t>
   </si>
   <si>
     <t>MVP-PRT: SMALL SLIDER</t>
   </si>
   <si>
+    <t>MVP-PRT: DEKSEL RAIL</t>
+  </si>
+  <si>
+    <t>MVP-PRT: DEKSEL SLIDER</t>
+  </si>
+  <si>
+    <t>MVP-PRT: BIG RAIL</t>
+  </si>
+  <si>
     <t>MVP-PRT: ACTUONIX MOTOR</t>
   </si>
   <si>
@@ -107,12 +131,6 @@
   </si>
   <si>
     <t>RS COMPONENTS</t>
-  </si>
-  <si>
-    <t>P1U150150LKN-PCT</t>
-  </si>
-  <si>
-    <t>PAU15ALS</t>
   </si>
   <si>
     <t>PQ12-100-6-R</t>
@@ -511,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -562,19 +580,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6192385</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -582,19 +600,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6192521</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -602,82 +620,79 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6192559</v>
       </c>
       <c r="I4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6192391</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6192442</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6192363</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -685,42 +700,42 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -728,41 +743,124 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="1">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="1">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="1">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="1">
+        <v>129</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="1">
         <v>2</v>
       </c>
     </row>

--- a/MVP/SHOPPING_LISTS/RS COMPONENTS.xlsx
+++ b/MVP/SHOPPING_LISTS/RS COMPONENTS.xlsx
@@ -846,7 +846,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>

--- a/MVP/SHOPPING_LISTS/RS COMPONENTS.xlsx
+++ b/MVP/SHOPPING_LISTS/RS COMPONENTS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -46,6 +46,9 @@
     <t>QTY.</t>
   </si>
   <si>
+    <t>13-018443</t>
+  </si>
+  <si>
     <t>13-018210</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>13-018730</t>
   </si>
   <si>
+    <t>MVP-PRT: AC/DC POWER SUPPLY</t>
+  </si>
+  <si>
     <t>MVP-PRT: BIG SLIDER</t>
   </si>
   <si>
@@ -133,16 +139,19 @@
     <t>RS COMPONENTS</t>
   </si>
   <si>
-    <t>PQ12-100-6-R</t>
+    <t>200-6361</t>
+  </si>
+  <si>
+    <t>180-8409</t>
   </si>
   <si>
     <t>228-0321</t>
   </si>
   <si>
-    <t>3SU1150-0AB20-1CA0</t>
-  </si>
-  <si>
-    <t>15-06-0080</t>
+    <t>180-9504</t>
+  </si>
+  <si>
+    <t>670-4515</t>
   </si>
   <si>
     <t>EL100D10-05</t>
@@ -529,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -541,9 +550,9 @@
     <col min="1" max="26" width="9.140625" style="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
@@ -580,19 +589,22 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="1">
-        <v>6192385</v>
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -600,19 +612,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1">
-        <v>6192521</v>
+        <v>6192385</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -620,19 +632,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1">
-        <v>6192559</v>
+        <v>6192521</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -640,39 +652,39 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1">
-        <v>6192391</v>
+        <v>6192559</v>
       </c>
       <c r="I5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1">
-        <v>6192442</v>
+        <v>6192391</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -680,82 +692,82 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1">
-        <v>6192363</v>
+        <v>6192442</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="1">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6192363</v>
       </c>
       <c r="I8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -763,19 +775,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -783,84 +795,104 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I12" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="1">
+        <v>129</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="1">
         <v>2</v>
       </c>
     </row>
